--- a/C.xlsx
+++ b/C.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Project_A\Project_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EE64C8-C389-44F7-A667-A3EB4BB08C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2E3B09-FFC8-42EF-9200-A1D87BB6785C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
-  <si>
-    <t>CID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>实际楼层</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -127,11 +123,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>商业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>用途</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -529,436 +525,381 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="13.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>16.91</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
+        <v>16.91</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7">
-        <v>16.91</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7">
-        <v>16.91</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+      <c r="C3" s="7">
+        <v>16.87</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>16.87</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7">
+        <v>5.84</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>5.84</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7">
+        <v>17.53</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>17.53</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7">
+        <v>3.16</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>3.16</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7">
+        <v>3.72</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>3.72</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>1</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2.92</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2.92</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>1</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7">
+        <v>4.47</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4.47</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>1</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>2</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.69</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.69</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>2</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>2</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7">
+        <v>5.84</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>5.84</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>2</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="7">
+        <v>49.99</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7">
+        <v>49.99</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>2</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7">
-        <v>16.87</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>16.87</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="C17" s="7">
+        <v>1.44</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1.44</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>2</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7">
-        <v>5.84</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>5.84</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="7">
-        <v>17.53</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>17.53</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="7">
-        <v>3.16</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>3.16</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="7">
-        <v>3.72</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>3.72</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="7">
-        <v>2.92</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
-        <v>2.92</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="7">
-        <v>4.47</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>4.47</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="7">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7">
-        <v>2</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0.17</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0.17</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7">
-        <v>2</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0.69</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0.69</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7">
-        <v>2</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="7">
-        <v>3.12</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
-        <v>3.12</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7">
-        <v>2</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="7">
-        <v>5.84</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
-        <v>5.84</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7">
-        <v>2</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="7">
-        <v>49.99</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7">
-        <v>49.99</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7">
-        <v>2</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1.44</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
-        <v>1.44</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7">
-        <v>2</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="7">
+      <c r="C18" s="7">
         <v>12.88</v>
       </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7">
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7">
         <v>12.88</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>20</v>
+      <c r="F18" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
